--- a/db/herbalchemywow.xlsx
+++ b/db/herbalchemywow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12930" activeTab="2"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="27870" windowHeight="12930" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regs" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="293">
   <si>
     <t>Black Lotus</t>
   </si>
@@ -906,6 +906,12 @@
   </si>
   <si>
     <t>lotus</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>peace</t>
   </si>
 </sst>
 </file>
@@ -2536,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,7 +2585,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>517</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>252</v>
@@ -2602,7 +2608,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>454</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>252</v>
@@ -2625,7 +2631,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>558</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>252</v>
@@ -2648,7 +2654,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>445</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>252</v>
@@ -2671,7 +2677,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>252</v>
@@ -2694,7 +2700,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>252</v>
@@ -2717,7 +2723,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>252</v>
@@ -2740,7 +2746,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>321</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>252</v>
@@ -2763,7 +2769,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>252</v>
@@ -2786,7 +2792,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>340</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>252</v>
@@ -2809,7 +2815,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>252</v>
@@ -2832,7 +2838,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>252</v>
@@ -2855,7 +2861,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>331</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>252</v>
@@ -2875,7 +2881,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>329</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>252</v>
@@ -2898,7 +2904,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>252</v>
@@ -2921,7 +2927,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>252</v>
@@ -2944,7 +2950,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>252</v>
@@ -2967,7 +2973,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>325</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>252</v>
@@ -2990,7 +2996,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>252</v>
@@ -3013,7 +3019,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>252</v>
@@ -3036,7 +3042,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>252</v>
@@ -3059,7 +3065,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>252</v>
@@ -3082,7 +3088,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>308</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>252</v>
@@ -3102,7 +3108,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>252</v>
@@ -3114,7 +3120,7 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
       <c r="F25" t="s">
         <v>164</v>
@@ -3125,7 +3131,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>252</v>
@@ -3148,7 +3154,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>252</v>
@@ -3168,7 +3174,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>252</v>
@@ -3183,7 +3189,7 @@
         <v>177</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>292</v>
       </c>
       <c r="G28" t="s">
         <v>140</v>
@@ -3191,7 +3197,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>472</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>252</v>
@@ -3211,7 +3217,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>362</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>252</v>
@@ -3228,7 +3234,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>252</v>
@@ -3248,7 +3254,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>252</v>
@@ -3268,7 +3274,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>373</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>252</v>
@@ -3288,7 +3294,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
         <v>252</v>
@@ -3308,7 +3314,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>351</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>252</v>
@@ -3325,7 +3331,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>252</v>
@@ -3345,7 +3351,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>252</v>
@@ -3678,7 +3684,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>603</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>254</v>
@@ -3701,7 +3707,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>323</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>254</v>
@@ -3724,7 +3730,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>256</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>254</v>
@@ -3747,7 +3753,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>391</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>254</v>
@@ -3767,7 +3773,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>254</v>
@@ -3790,7 +3796,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>642</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>254</v>
@@ -3813,7 +3819,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>463</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>254</v>
@@ -3836,7 +3842,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>418</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>254</v>
@@ -3859,7 +3865,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>254</v>
@@ -3882,7 +3888,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>254</v>
@@ -3905,7 +3911,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>254</v>
@@ -3928,7 +3934,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>254</v>
@@ -3951,7 +3957,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>275</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>254</v>
@@ -3974,7 +3980,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>254</v>
@@ -3997,7 +4003,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>254</v>
@@ -4020,7 +4026,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>254</v>
@@ -4043,7 +4049,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>254</v>
@@ -4066,7 +4072,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>254</v>
@@ -4089,7 +4095,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>254</v>
@@ -4112,7 +4118,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>254</v>
@@ -4135,7 +4141,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>254</v>
@@ -4158,7 +4164,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>254</v>
@@ -4181,7 +4187,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>254</v>
@@ -4204,7 +4210,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>254</v>
@@ -4227,7 +4233,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>254</v>
@@ -4250,7 +4256,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>254</v>
@@ -4273,7 +4279,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>254</v>
@@ -4296,7 +4302,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>254</v>
@@ -4319,7 +4325,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>254</v>
@@ -4342,7 +4348,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>254</v>
@@ -4365,7 +4371,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>254</v>
@@ -4388,7 +4394,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>254</v>
@@ -4411,7 +4417,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>254</v>
@@ -4434,7 +4440,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>254</v>
@@ -4454,7 +4460,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>254</v>
@@ -4474,7 +4480,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>310</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>254</v>
@@ -4491,7 +4497,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>254</v>
@@ -4511,7 +4517,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>609</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>254</v>
@@ -4531,7 +4537,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>499</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>254</v>
@@ -4551,7 +4557,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>605</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>254</v>
@@ -4571,7 +4577,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>613</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>254</v>
@@ -4588,7 +4594,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>607</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>254</v>
@@ -4608,7 +4614,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>611</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>254</v>
@@ -4628,7 +4634,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>508</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>254</v>
@@ -4648,7 +4654,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>436</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>254</v>
@@ -4668,7 +4674,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>567</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>254</v>
@@ -4691,7 +4697,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>490</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>254</v>
@@ -4711,7 +4717,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>624</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>254</v>
@@ -4734,7 +4740,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>615</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>254</v>
@@ -4754,7 +4760,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>540</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>254</v>
@@ -4774,7 +4780,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>254</v>
